--- a/backend/data/score.xlsx
+++ b/backend/data/score.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SON.admin\VIII\Architecture\dkhp-iuh-edu-vn\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCA4890-BE6C-4485-8B05-E5CA1B7358E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAC226E-AC3D-4AF0-92F8-780478F54A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -489,35 +489,35 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <f ca="1">RANDBETWEEN(0,10)</f>
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <f t="shared" ref="D2:J3" ca="1" si="0">RANDBETWEEN(0,10)</f>
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
-      <c r="H2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ca="1" si="0"/>
         <v>8</v>
-      </c>
-      <c r="J2">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -529,11 +529,11 @@
       </c>
       <c r="C3">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>4</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
@@ -541,23 +541,23 @@
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/score.xlsx
+++ b/backend/data/score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SON.admin\VIII\Architecture\dkhp-iuh-edu-vn\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAC226E-AC3D-4AF0-92F8-780478F54A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8591160-FAB3-41AE-89C8-84DC43C39EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -489,35 +489,35 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="D2:J3" ca="1" si="0">RANDBETWEEN(0,10)</f>
+        <f t="shared" ref="E2:J3" ca="1" si="0">RANDBETWEEN(0,10)</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="F2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -529,31 +529,31 @@
       </c>
       <c r="C3">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>

--- a/backend/data/score.xlsx
+++ b/backend/data/score.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SON.admin\VIII\Architecture\dkhp-iuh-edu-vn\backend\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Word_Space\New folder\dkhp-iuh-edu-vn\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8591160-FAB3-41AE-89C8-84DC43C39EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3304F747-A5D4-492E-A222-F499C06A2CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="f0fbf19c-f072-49c4-90e2-f841046" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -108,7 +108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -443,12 +443,12 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -489,11 +489,11 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:J3" ca="1" si="0">RANDBETWEEN(0,10)</f>
@@ -505,22 +505,22 @@
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="H2">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -529,35 +529,35 @@
       </c>
       <c r="C3">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
